--- a/asc/obd_ethernet_log.new.xlsx
+++ b/asc/obd_ethernet_log.new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d081ef645cf68a24/Desktop/my_toolbox/_calc/eng/DoIP_analyzer/asc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_66B1AD249540900F62355476585DCE3A8741EA2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BEDFA3D-111A-46CC-9F45-05272038DF21}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_66B1AD249540900F62355476585DCE3A8741EA2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90C642D3-7DD5-4A61-ACDD-51E25AE6A937}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2472,9 +2472,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2493,7 +2491,52 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2504,6 +2547,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{155C4A2E-3F0B-4D8B-AB89-098BC95BC443}" name="표1" displayName="표1" ref="A1:H813" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:H813" xr:uid="{155C4A2E-3F0B-4D8B-AB89-098BC95BC443}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Rx"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C29AC53F-6F6F-4F3E-A82E-B20D2C9EC1BA}" name="ts"/>
+    <tableColumn id="2" xr3:uid="{CEB8268D-FE3B-40E1-AC5E-25E397956964}" name="type"/>
+    <tableColumn id="3" xr3:uid="{2C395D5A-ABBA-406A-823E-CF0E69C33386}" name="ch"/>
+    <tableColumn id="4" xr3:uid="{FE2A989B-719F-435B-BD99-63794C6F68D8}" name="tx_rx"/>
+    <tableColumn id="5" xr3:uid="{99E408C5-2837-4B16-83E6-B2E72481B563}" name="data"/>
+    <tableColumn id="6" xr3:uid="{80924700-C6D7-4F0F-B754-191BD6768C9A}" name="fcs"/>
+    <tableColumn id="7" xr3:uid="{0633A690-C9D9-454B-A4D2-976599394716}" name="port"/>
+    <tableColumn id="8" xr3:uid="{8177290E-174B-4DFE-8041-D353E60E4B2C}" name="sim"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2794,15 +2864,15 @@
   <dimension ref="A1:H813"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" customWidth="1"/>
+    <col min="4" max="4" width="6.796875" customWidth="1"/>
     <col min="5" max="5" width="255.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -2861,7 +2931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0.257025</v>
       </c>
@@ -2887,7 +2957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.25703199999999998</v>
       </c>
@@ -2939,7 +3009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.27215699999999998</v>
       </c>
@@ -2965,7 +3035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.27217000000000002</v>
       </c>
@@ -3017,7 +3087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.46843499999999999</v>
       </c>
@@ -3043,7 +3113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.46843499999999999</v>
       </c>
@@ -3095,7 +3165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1.065977</v>
       </c>
@@ -3121,7 +3191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1.066004</v>
       </c>
@@ -3173,7 +3243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1.4684489999999999</v>
       </c>
@@ -3199,7 +3269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1.46845</v>
       </c>
@@ -3251,7 +3321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>2.4684650000000001</v>
       </c>
@@ -3277,7 +3347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2.4684650000000001</v>
       </c>
@@ -3329,7 +3399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>3.46848</v>
       </c>
@@ -3355,7 +3425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>3.46848</v>
       </c>
@@ -3407,7 +3477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>4.4684949999999999</v>
       </c>
@@ -3433,7 +3503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>4.468496</v>
       </c>
@@ -3485,7 +3555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>5.4685100000000002</v>
       </c>
@@ -3511,7 +3581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>5.4685110000000003</v>
       </c>
@@ -3563,7 +3633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>6.4685259999999998</v>
       </c>
@@ -3589,7 +3659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>6.4685259999999998</v>
       </c>
@@ -3641,7 +3711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>7.4685410000000001</v>
       </c>
@@ -3667,7 +3737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>7.4685410000000001</v>
       </c>
@@ -3719,7 +3789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>8.2804389999999994</v>
       </c>
@@ -3745,7 +3815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>8.2804520000000004</v>
       </c>
@@ -3797,7 +3867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>8.4685559999999995</v>
       </c>
@@ -3823,7 +3893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>8.4685570000000006</v>
       </c>
@@ -3875,7 +3945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>9.4685710000000007</v>
       </c>
@@ -3901,7 +3971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>9.468572</v>
       </c>
@@ -3953,7 +4023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>10.050367</v>
       </c>
@@ -3979,7 +4049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>10.050394000000001</v>
       </c>
@@ -4031,7 +4101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>10.468586</v>
       </c>
@@ -4057,7 +4127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>10.468586999999999</v>
       </c>
@@ -4109,7 +4179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>11.468601</v>
       </c>
@@ -4135,7 +4205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>11.468602000000001</v>
       </c>
@@ -4187,7 +4257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>12.468617</v>
       </c>
@@ -4213,7 +4283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>12.468617999999999</v>
       </c>
@@ -4265,7 +4335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>12.899912</v>
       </c>
@@ -4291,7 +4361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>12.899917</v>
       </c>
@@ -4343,7 +4413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>12.900033000000001</v>
       </c>
@@ -4395,7 +4465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>12.900162999999999</v>
       </c>
@@ -4447,7 +4517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>12.900363</v>
       </c>
@@ -4499,7 +4569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>12.900520999999999</v>
       </c>
@@ -4551,7 +4621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>13.468631999999999</v>
       </c>
@@ -4577,7 +4647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>13.468633000000001</v>
       </c>
@@ -4629,7 +4699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>13.50304</v>
       </c>
@@ -4681,7 +4751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>13.503209999999999</v>
       </c>
@@ -4733,7 +4803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>13.533785</v>
       </c>
@@ -4785,7 +4855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>13.587531999999999</v>
       </c>
@@ -4837,7 +4907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>13.652704</v>
       </c>
@@ -4889,7 +4959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>13.652882999999999</v>
       </c>
@@ -4941,7 +5011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>13.655983000000001</v>
       </c>
@@ -4993,7 +5063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>13.699260000000001</v>
       </c>
@@ -5045,7 +5115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>15.539586</v>
       </c>
@@ -5097,7 +5167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>15.53984</v>
       </c>
@@ -5149,7 +5219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>15.542089000000001</v>
       </c>
@@ -5201,7 +5271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>15.59741</v>
       </c>
@@ -5253,7 +5323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>17.539887</v>
       </c>
@@ -5305,7 +5375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>17.540057000000001</v>
       </c>
@@ -5357,7 +5427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>17.542119</v>
       </c>
@@ -5409,7 +5479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>17.583743999999999</v>
       </c>
@@ -5461,7 +5531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>17.637528</v>
       </c>
@@ -5487,7 +5557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>17.637533999999999</v>
       </c>
@@ -5539,7 +5609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>19.539874000000001</v>
       </c>
@@ -5591,7 +5661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>19.540044000000002</v>
       </c>
@@ -5643,7 +5713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>19.542148999999998</v>
       </c>
@@ -5695,7 +5765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>19.591386</v>
       </c>
@@ -5747,7 +5817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>19.801068000000001</v>
       </c>
@@ -5773,7 +5843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>19.801072999999999</v>
       </c>
@@ -5825,7 +5895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>21.233730999999999</v>
       </c>
@@ -5877,7 +5947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>21.233926</v>
       </c>
@@ -5929,7 +5999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>21.235904000000001</v>
       </c>
@@ -5981,7 +6051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>21.256958999999998</v>
       </c>
@@ -6033,7 +6103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>21.257123</v>
       </c>
@@ -6085,7 +6155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>21.261130000000001</v>
       </c>
@@ -6137,7 +6207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>21.261296000000002</v>
       </c>
@@ -6189,7 +6259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>21.262906999999998</v>
       </c>
@@ -6241,7 +6311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>21.286957999999998</v>
       </c>
@@ -6293,7 +6363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>21.287120000000002</v>
       </c>
@@ -6345,7 +6415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>21.316614000000001</v>
       </c>
@@ -6397,7 +6467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>21.316922000000002</v>
       </c>
@@ -6449,7 +6519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>21.318904</v>
       </c>
@@ -6501,7 +6571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>21.341958000000002</v>
       </c>
@@ -6553,7 +6623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>21.342184</v>
       </c>
@@ -6605,7 +6675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>21.541063000000001</v>
       </c>
@@ -6657,7 +6727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>21.541232000000001</v>
       </c>
@@ -6709,7 +6779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>21.543187</v>
       </c>
@@ -6761,7 +6831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>21.594861000000002</v>
       </c>
@@ -6813,7 +6883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>21.934646000000001</v>
       </c>
@@ -6839,7 +6909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>21.934652</v>
       </c>
@@ -6891,7 +6961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>23.335326999999999</v>
       </c>
@@ -6943,7 +7013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>23.335495000000002</v>
       </c>
@@ -6995,7 +7065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>23.336936999999999</v>
       </c>
@@ -7047,7 +7117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>23.361991</v>
       </c>
@@ -7099,7 +7169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>23.362196999999998</v>
       </c>
@@ -7151,7 +7221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>23.364971000000001</v>
       </c>
@@ -7203,7 +7273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>23.365138999999999</v>
       </c>
@@ -7255,7 +7325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>23.366935999999999</v>
       </c>
@@ -7307,7 +7377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>23.39199</v>
       </c>
@@ -7359,7 +7429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>23.392254000000001</v>
       </c>
@@ -7411,7 +7481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>23.428068</v>
       </c>
@@ -7463,7 +7533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>23.428235999999998</v>
       </c>
@@ -7515,7 +7585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>23.429936000000001</v>
       </c>
@@ -7567,7 +7637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>23.456990999999999</v>
       </c>
@@ -7619,7 +7689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>23.457160999999999</v>
       </c>
@@ -7671,7 +7741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>23.541457999999999</v>
       </c>
@@ -7723,7 +7793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>23.541626999999998</v>
       </c>
@@ -7775,7 +7845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>23.543216999999999</v>
       </c>
@@ -7827,7 +7897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>23.585104000000001</v>
       </c>
@@ -7879,7 +7949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>24.082858000000002</v>
       </c>
@@ -7905,7 +7975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>24.082863</v>
       </c>
@@ -7957,7 +8027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>24.354104</v>
       </c>
@@ -7983,7 +8053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>24.354116999999999</v>
       </c>
@@ -8035,7 +8105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>25.451053000000002</v>
       </c>
@@ -8087,7 +8157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>25.451222999999999</v>
       </c>
@@ -8139,7 +8209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>25.452971999999999</v>
       </c>
@@ -8191,7 +8261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>25.477022999999999</v>
       </c>
@@ -8243,7 +8313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>25.4772</v>
       </c>
@@ -8295,7 +8365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>25.480135000000001</v>
       </c>
@@ -8347,7 +8417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>25.480301999999998</v>
       </c>
@@ -8399,7 +8469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>25.481968999999999</v>
       </c>
@@ -8451,7 +8521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>25.502022</v>
       </c>
@@ -8503,7 +8573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>25.502172999999999</v>
       </c>
@@ -8555,7 +8625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>25.521846</v>
       </c>
@@ -8607,7 +8677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>25.522015</v>
       </c>
@@ -8659,7 +8729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>25.523973000000002</v>
       </c>
@@ -8711,7 +8781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>25.541519000000001</v>
       </c>
@@ -8763,7 +8833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>25.541715</v>
       </c>
@@ -8815,7 +8885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>25.543247999999998</v>
       </c>
@@ -8867,7 +8937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>25.552022999999998</v>
       </c>
@@ -8919,7 +8989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>25.55218</v>
       </c>
@@ -8971,7 +9041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>26.219045000000001</v>
       </c>
@@ -8997,7 +9067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>26.219049999999999</v>
       </c>
@@ -9049,7 +9119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>26.980895</v>
       </c>
@@ -9075,7 +9145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>26.980923000000001</v>
       </c>
@@ -9127,7 +9197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>27.53631</v>
       </c>
@@ -9179,7 +9249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>27.536480999999998</v>
       </c>
@@ -9231,7 +9301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>27.538</v>
       </c>
@@ -9283,7 +9353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>27.541730000000001</v>
       </c>
@@ -9335,7 +9405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>27.542045000000002</v>
       </c>
@@ -9387,7 +9457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>27.544360000000001</v>
       </c>
@@ -9439,7 +9509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>27.562055000000001</v>
       </c>
@@ -9491,7 +9561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>27.562201999999999</v>
       </c>
@@ -9543,7 +9613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>27.569927</v>
       </c>
@@ -9595,7 +9665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>27.570094999999998</v>
       </c>
@@ -9647,7 +9717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>27.572001</v>
       </c>
@@ -9699,7 +9769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>27.592054000000001</v>
       </c>
@@ -9751,7 +9821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>27.592224999999999</v>
       </c>
@@ -9803,7 +9873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>27.613679999999999</v>
       </c>
@@ -9855,7 +9925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>27.613989</v>
       </c>
@@ -9907,7 +9977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>27.616</v>
       </c>
@@ -9959,7 +10029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>27.642054999999999</v>
       </c>
@@ -10011,7 +10081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>27.642247999999999</v>
       </c>
@@ -10063,7 +10133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>28.334106999999999</v>
       </c>
@@ -10089,7 +10159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>28.334112999999999</v>
       </c>
@@ -10141,7 +10211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>29.542615999999999</v>
       </c>
@@ -10193,7 +10263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>29.542786</v>
       </c>
@@ -10245,7 +10315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>29.544370000000001</v>
       </c>
@@ -10297,7 +10367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>29.598132</v>
       </c>
@@ -10349,7 +10419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>29.633997000000001</v>
       </c>
@@ -10401,7 +10471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>29.634164999999999</v>
       </c>
@@ -10453,7 +10523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>29.636030999999999</v>
       </c>
@@ -10505,7 +10575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>29.657086</v>
       </c>
@@ -10557,7 +10627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>29.657291000000001</v>
       </c>
@@ -10609,7 +10679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>29.665607000000001</v>
       </c>
@@ -10661,7 +10731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>29.665775</v>
       </c>
@@ -10713,7 +10783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>29.667031999999999</v>
       </c>
@@ -10765,7 +10835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>29.687086000000001</v>
       </c>
@@ -10817,7 +10887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>29.687244</v>
       </c>
@@ -10869,7 +10939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>29.712499999999999</v>
       </c>
@@ -10921,7 +10991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>29.712668000000001</v>
       </c>
@@ -10973,7 +11043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>29.714784000000002</v>
       </c>
@@ -11025,7 +11095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>29.742087000000001</v>
       </c>
@@ -11077,7 +11147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>29.742249999999999</v>
       </c>
@@ -11129,7 +11199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>31.543336</v>
       </c>
@@ -11181,7 +11251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>31.543541000000001</v>
       </c>
@@ -11233,7 +11303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>31.545331999999998</v>
       </c>
@@ -11285,7 +11355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>31.601566999999999</v>
       </c>
@@ -11337,7 +11407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>31.69312</v>
       </c>
@@ -11389,7 +11459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>31.695098999999999</v>
       </c>
@@ -11441,7 +11511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>31.697064000000001</v>
       </c>
@@ -11493,7 +11563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>31.717116999999998</v>
       </c>
@@ -11545,7 +11615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>31.717428999999999</v>
       </c>
@@ -11597,7 +11667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>31.724799999999998</v>
       </c>
@@ -11649,7 +11719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>31.725079999999998</v>
       </c>
@@ -11701,7 +11771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>31.727063000000001</v>
       </c>
@@ -11753,7 +11823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>31.747115999999998</v>
       </c>
@@ -11805,7 +11875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>31.747388999999998</v>
       </c>
@@ -11857,7 +11927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>31.767959999999999</v>
       </c>
@@ -11909,7 +11979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>31.768128999999998</v>
       </c>
@@ -11961,7 +12031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>31.770063</v>
       </c>
@@ -12013,7 +12083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>31.797118000000001</v>
       </c>
@@ -12065,7 +12135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>31.797412000000001</v>
       </c>
@@ -12117,7 +12187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>33.543599</v>
       </c>
@@ -12169,7 +12239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>33.543767000000003</v>
       </c>
@@ -12221,7 +12291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>33.545361999999997</v>
       </c>
@@ -12273,7 +12343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>33.600423999999997</v>
       </c>
@@ -12325,7 +12395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>33.772683000000001</v>
       </c>
@@ -12377,7 +12447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>33.772852999999998</v>
       </c>
@@ -12429,7 +12499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>33.774118000000001</v>
       </c>
@@ -12481,7 +12551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>33.797148999999997</v>
       </c>
@@ -12533,7 +12603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>33.797364999999999</v>
       </c>
@@ -12585,7 +12655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>33.799646000000003</v>
       </c>
@@ -12637,7 +12707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>33.799812000000003</v>
       </c>
@@ -12689,7 +12759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>33.801093999999999</v>
       </c>
@@ -12741,7 +12811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>33.822149000000003</v>
       </c>
@@ -12793,7 +12863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>33.822358000000001</v>
       </c>
@@ -12845,7 +12915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>33.841568000000002</v>
       </c>
@@ -12897,7 +12967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>33.841737000000002</v>
       </c>
@@ -12949,7 +13019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>33.843102000000002</v>
       </c>
@@ -13001,7 +13071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>33.872149</v>
       </c>
@@ -13053,7 +13123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>33.872345000000003</v>
       </c>
@@ -13105,7 +13175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>35.242704000000003</v>
       </c>
@@ -13157,7 +13227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>35.242874</v>
       </c>
@@ -13209,7 +13279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>35.244141999999997</v>
       </c>
@@ -13261,7 +13331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>35.267170999999998</v>
       </c>
@@ -13313,7 +13383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>35.267431000000002</v>
       </c>
@@ -13365,7 +13435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>35.274709000000001</v>
       </c>
@@ -13417,7 +13487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>35.274876999999996</v>
       </c>
@@ -13469,7 +13539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>35.276116000000002</v>
       </c>
@@ -13521,7 +13591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>35.297172000000003</v>
       </c>
@@ -13573,7 +13643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>35.297508000000001</v>
       </c>
@@ -13625,7 +13695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>35.33643</v>
       </c>
@@ -13677,7 +13747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>35.336598000000002</v>
       </c>
@@ -13729,7 +13799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>35.338118000000001</v>
       </c>
@@ -13781,7 +13851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>35.367171999999997</v>
       </c>
@@ -13833,7 +13903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>35.367381999999999</v>
       </c>
@@ -13885,7 +13955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>35.544387</v>
       </c>
@@ -13937,7 +14007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>35.545200999999999</v>
       </c>
@@ -13989,7 +14059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>35.547393</v>
       </c>
@@ -14041,7 +14111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>35.589556000000002</v>
       </c>
@@ -14093,7 +14163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>37.337111999999998</v>
       </c>
@@ -14145,7 +14215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>37.337282999999999</v>
       </c>
@@ -14197,7 +14267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>37.339149999999997</v>
       </c>
@@ -14249,7 +14319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>37.362203999999998</v>
       </c>
@@ -14301,7 +14371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>37.362540000000003</v>
       </c>
@@ -14353,7 +14423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>37.366498999999997</v>
       </c>
@@ -14405,7 +14475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>37.366667999999997</v>
       </c>
@@ -14457,7 +14527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>37.368149000000003</v>
       </c>
@@ -14509,7 +14579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>37.392204</v>
       </c>
@@ -14561,7 +14631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>37.392536999999997</v>
       </c>
@@ -14613,7 +14683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>37.413452999999997</v>
       </c>
@@ -14665,7 +14735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>37.415184000000004</v>
       </c>
@@ -14717,7 +14787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>37.417150999999997</v>
       </c>
@@ -14769,7 +14839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>37.437204000000001</v>
       </c>
@@ -14821,7 +14891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>37.437409000000002</v>
       </c>
@@ -14873,7 +14943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>37.544981</v>
       </c>
@@ -14925,7 +14995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>37.545164999999997</v>
       </c>
@@ -14977,7 +15047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>37.547423999999999</v>
       </c>
@@ -15029,7 +15099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A471">
         <v>37.595021000000003</v>
       </c>
@@ -15081,7 +15151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A473">
         <v>37.722828</v>
       </c>
@@ -15133,7 +15203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A475">
         <v>37.723216999999998</v>
       </c>
@@ -15185,7 +15255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A477">
         <v>37.725155000000001</v>
       </c>
@@ -15237,7 +15307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A479">
         <v>37.752209999999998</v>
       </c>
@@ -15289,7 +15359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>37.752504000000002</v>
       </c>
@@ -15341,7 +15411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>37.756739000000003</v>
       </c>
@@ -15393,7 +15463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>37.756908000000003</v>
       </c>
@@ -15445,7 +15515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>37.758156</v>
       </c>
@@ -15497,7 +15567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>37.782209999999999</v>
       </c>
@@ -15549,7 +15619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>37.782421999999997</v>
       </c>
@@ -15601,7 +15671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>38.735081000000001</v>
       </c>
@@ -15653,7 +15723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>38.735250000000001</v>
       </c>
@@ -15705,7 +15775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>38.737172999999999</v>
       </c>
@@ -15757,7 +15827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>38.762225999999998</v>
       </c>
@@ -15809,7 +15879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>38.762394999999998</v>
       </c>
@@ -15861,7 +15931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>38.764803999999998</v>
       </c>
@@ -15913,7 +15983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>38.764982000000003</v>
       </c>
@@ -15965,7 +16035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>38.766171999999997</v>
       </c>
@@ -16017,7 +16087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>38.787224999999999</v>
       </c>
@@ -16069,7 +16139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>38.787391999999997</v>
       </c>
@@ -16121,7 +16191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>39.401681000000004</v>
       </c>
@@ -16173,7 +16243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>39.401851000000001</v>
       </c>
@@ -16225,7 +16295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>39.403184000000003</v>
       </c>
@@ -16277,7 +16347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>39.427233999999999</v>
       </c>
@@ -16329,7 +16399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>39.427430000000001</v>
       </c>
@@ -16381,7 +16451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>39.429502999999997</v>
       </c>
@@ -16433,7 +16503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>39.429668999999997</v>
       </c>
@@ -16485,7 +16555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>39.431179</v>
       </c>
@@ -16537,7 +16607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>39.452235000000002</v>
       </c>
@@ -16589,7 +16659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>39.452452999999998</v>
       </c>
@@ -16641,7 +16711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>39.466250000000002</v>
       </c>
@@ -16693,7 +16763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>39.466419999999999</v>
       </c>
@@ -16745,7 +16815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>39.468179999999997</v>
       </c>
@@ -16797,7 +16867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>39.502234999999999</v>
       </c>
@@ -16849,7 +16919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>39.502423</v>
       </c>
@@ -16901,7 +16971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>39.545476999999998</v>
       </c>
@@ -16953,7 +17023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>39.545644000000003</v>
       </c>
@@ -17005,7 +17075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>39.547454000000002</v>
       </c>
@@ -17057,7 +17127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>39.597382000000003</v>
       </c>
@@ -17109,7 +17179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>39.723131000000002</v>
       </c>
@@ -17161,7 +17231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>39.723303999999999</v>
       </c>
@@ -17213,7 +17283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>39.726187000000003</v>
       </c>
@@ -17265,7 +17335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>39.75224</v>
       </c>
@@ -17317,7 +17387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>39.752439000000003</v>
       </c>
@@ -17369,7 +17439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>39.755803</v>
       </c>
@@ -17421,7 +17491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>39.755982000000003</v>
       </c>
@@ -17473,7 +17543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>39.757187999999999</v>
       </c>
@@ -17525,7 +17595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>39.777240999999997</v>
       </c>
@@ -17577,7 +17647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>39.777442999999998</v>
       </c>
@@ -17629,7 +17699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>40.732944000000003</v>
       </c>
@@ -17681,7 +17751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>40.733294999999998</v>
       </c>
@@ -17733,7 +17803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>40.735202000000001</v>
       </c>
@@ -17785,7 +17855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>40.762256999999998</v>
       </c>
@@ -17837,7 +17907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>40.762560000000001</v>
       </c>
@@ -17889,7 +17959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A581">
         <v>40.765864999999998</v>
       </c>
@@ -17941,7 +18011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A583">
         <v>40.766173999999999</v>
       </c>
@@ -17993,7 +18063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A585">
         <v>40.768202000000002</v>
       </c>
@@ -18045,7 +18115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A587">
         <v>40.792256000000002</v>
       </c>
@@ -18097,7 +18167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A589">
         <v>40.792558</v>
       </c>
@@ -18149,7 +18219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A591">
         <v>41.479742000000002</v>
       </c>
@@ -18201,7 +18271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>41.479911000000001</v>
       </c>
@@ -18253,7 +18323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>41.481211000000002</v>
       </c>
@@ -18305,7 +18375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A597">
         <v>41.502265999999999</v>
       </c>
@@ -18357,7 +18427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A599">
         <v>41.502448999999999</v>
       </c>
@@ -18409,7 +18479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A601">
         <v>41.504600000000003</v>
       </c>
@@ -18461,7 +18531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A603">
         <v>41.504767999999999</v>
       </c>
@@ -18513,7 +18583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A605">
         <v>41.506211</v>
       </c>
@@ -18565,7 +18635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A607">
         <v>41.527265999999997</v>
       </c>
@@ -18617,7 +18687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A609">
         <v>41.527445</v>
       </c>
@@ -18669,7 +18739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A611">
         <v>41.545976000000003</v>
       </c>
@@ -18721,7 +18791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A613">
         <v>41.546228999999997</v>
       </c>
@@ -18773,7 +18843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A615">
         <v>41.548518000000001</v>
       </c>
@@ -18825,7 +18895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A617">
         <v>41.561134000000003</v>
       </c>
@@ -18877,7 +18947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A619">
         <v>41.561335</v>
       </c>
@@ -18929,7 +18999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A621">
         <v>41.563215999999997</v>
       </c>
@@ -18981,7 +19051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A623">
         <v>41.592267</v>
       </c>
@@ -19033,7 +19103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A625">
         <v>41.592570000000002</v>
       </c>
@@ -19085,7 +19155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A627">
         <v>43.546861999999997</v>
       </c>
@@ -19137,7 +19207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A629">
         <v>43.547044</v>
       </c>
@@ -19189,7 +19259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A631">
         <v>43.548515000000002</v>
       </c>
@@ -19241,7 +19311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A633">
         <v>43.560181</v>
       </c>
@@ -19293,7 +19363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A635">
         <v>43.560381999999997</v>
       </c>
@@ -19345,7 +19415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A637">
         <v>43.562244</v>
       </c>
@@ -19397,7 +19467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A639">
         <v>43.582298000000002</v>
       </c>
@@ -19449,7 +19519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A641">
         <v>43.582534000000003</v>
       </c>
@@ -19501,7 +19571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A643">
         <v>43.584422000000004</v>
       </c>
@@ -19553,7 +19623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A645">
         <v>43.584589000000001</v>
       </c>
@@ -19605,7 +19675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A647">
         <v>43.586243000000003</v>
       </c>
@@ -19657,7 +19727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A649">
         <v>43.607297000000003</v>
       </c>
@@ -19709,7 +19779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A651">
         <v>43.607517999999999</v>
       </c>
@@ -19761,7 +19831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A653">
         <v>43.622281000000001</v>
       </c>
@@ -19813,7 +19883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A655">
         <v>43.622449000000003</v>
       </c>
@@ -19865,7 +19935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A657">
         <v>43.624265999999999</v>
       </c>
@@ -19917,7 +19987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A659">
         <v>43.652298000000002</v>
       </c>
@@ -19969,7 +20039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A661">
         <v>43.652517000000003</v>
       </c>
@@ -20021,7 +20091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A663">
         <v>45.547198999999999</v>
       </c>
@@ -20073,7 +20143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A665">
         <v>45.547369000000003</v>
       </c>
@@ -20125,7 +20195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A667">
         <v>45.549545000000002</v>
       </c>
@@ -20177,7 +20247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A669">
         <v>45.598069000000002</v>
       </c>
@@ -20229,7 +20299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A671">
         <v>45.645189999999999</v>
       </c>
@@ -20281,7 +20351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A673">
         <v>45.645358999999999</v>
       </c>
@@ -20333,7 +20403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A675">
         <v>45.647275999999998</v>
       </c>
@@ -20385,7 +20455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A677">
         <v>45.667329000000002</v>
       </c>
@@ -20437,7 +20507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A679">
         <v>45.667507000000001</v>
       </c>
@@ -20489,7 +20559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A681">
         <v>45.670394000000002</v>
       </c>
@@ -20541,7 +20611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A683">
         <v>45.670560000000002</v>
       </c>
@@ -20593,7 +20663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A685">
         <v>45.672274999999999</v>
       </c>
@@ -20645,7 +20715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A687">
         <v>45.692329999999998</v>
       </c>
@@ -20697,7 +20767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A689">
         <v>45.692500000000003</v>
       </c>
@@ -20749,7 +20819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A691">
         <v>45.707808999999997</v>
       </c>
@@ -20801,7 +20871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A693">
         <v>45.707977999999997</v>
       </c>
@@ -20853,7 +20923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A695">
         <v>45.709274999999998</v>
       </c>
@@ -20905,7 +20975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A697">
         <v>45.742330000000003</v>
       </c>
@@ -20957,7 +21027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A699">
         <v>45.742494999999998</v>
       </c>
@@ -21009,7 +21079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A701">
         <v>47.547558000000002</v>
       </c>
@@ -21061,7 +21131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A703">
         <v>47.547728999999997</v>
       </c>
@@ -21113,7 +21183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A705">
         <v>47.549574999999997</v>
       </c>
@@ -21165,7 +21235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A707">
         <v>47.595089000000002</v>
       </c>
@@ -21217,7 +21287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A709">
         <v>47.701324999999997</v>
       </c>
@@ -21269,7 +21339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A711">
         <v>47.701495000000001</v>
       </c>
@@ -21321,7 +21391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A713">
         <v>47.703310999999999</v>
       </c>
@@ -21373,7 +21443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A715">
         <v>47.727361000000002</v>
       </c>
@@ -21425,7 +21495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A717">
         <v>47.727556999999997</v>
       </c>
@@ -21477,7 +21547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A719">
         <v>47.736944000000001</v>
       </c>
@@ -21529,7 +21599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A721">
         <v>47.737121999999999</v>
       </c>
@@ -21581,7 +21651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A723">
         <v>47.738308000000004</v>
       </c>
@@ -21633,7 +21703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A725">
         <v>47.762368000000002</v>
       </c>
@@ -21685,7 +21755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A727">
         <v>47.762673999999997</v>
       </c>
@@ -21737,7 +21807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A729">
         <v>47.779339</v>
       </c>
@@ -21789,7 +21859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A731">
         <v>47.779507000000002</v>
       </c>
@@ -21841,7 +21911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A733">
         <v>47.781308000000003</v>
       </c>
@@ -21893,7 +21963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A735">
         <v>47.812362</v>
       </c>
@@ -21945,7 +22015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A737">
         <v>47.812615999999998</v>
       </c>
@@ -21997,7 +22067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A739">
         <v>49.191597000000002</v>
       </c>
@@ -22049,7 +22119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A741">
         <v>49.191768000000003</v>
       </c>
@@ -22101,7 +22171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A743">
         <v>49.193337</v>
       </c>
@@ -22153,7 +22223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A745">
         <v>49.217384000000003</v>
       </c>
@@ -22205,7 +22275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A747">
         <v>49.217737</v>
       </c>
@@ -22257,7 +22327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A749">
         <v>49.223759999999999</v>
       </c>
@@ -22309,7 +22379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A751">
         <v>49.223925999999999</v>
       </c>
@@ -22361,7 +22431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A753">
         <v>49.225329000000002</v>
       </c>
@@ -22413,7 +22483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A755">
         <v>49.247383999999997</v>
       </c>
@@ -22465,7 +22535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A757">
         <v>49.247801000000003</v>
       </c>
@@ -22517,7 +22587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A759">
         <v>49.285446999999998</v>
       </c>
@@ -22569,7 +22639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A761">
         <v>49.285615</v>
       </c>
@@ -22621,7 +22691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A763">
         <v>49.287331000000002</v>
       </c>
@@ -22673,7 +22743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A765">
         <v>49.312384000000002</v>
       </c>
@@ -22725,7 +22795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A767">
         <v>49.312725999999998</v>
       </c>
@@ -22777,7 +22847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A769">
         <v>49.54804</v>
       </c>
@@ -22829,7 +22899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A771">
         <v>49.548349000000002</v>
       </c>
@@ -22881,7 +22951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A773">
         <v>49.550606000000002</v>
       </c>
@@ -22933,7 +23003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A775">
         <v>49.599041999999997</v>
       </c>
@@ -22985,7 +23055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A777">
         <v>51.284725000000002</v>
       </c>
@@ -23037,7 +23107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A779">
         <v>51.284894999999999</v>
       </c>
@@ -23089,7 +23159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A781">
         <v>51.286361999999997</v>
       </c>
@@ -23141,7 +23211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A783">
         <v>51.307414999999999</v>
       </c>
@@ -23193,7 +23263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A785">
         <v>51.307547</v>
       </c>
@@ -23245,7 +23315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A787">
         <v>51.309567000000001</v>
       </c>
@@ -23297,7 +23367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A789">
         <v>51.309733000000001</v>
       </c>
@@ -23349,7 +23419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A791">
         <v>51.311360999999998</v>
       </c>
@@ -23401,7 +23471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A793">
         <v>51.332416000000002</v>
       </c>
@@ -23453,7 +23523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A795">
         <v>51.332605999999998</v>
       </c>
@@ -23505,7 +23575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A797">
         <v>51.348542000000002</v>
       </c>
@@ -23557,7 +23627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A799">
         <v>51.348708999999999</v>
       </c>
@@ -23609,7 +23679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A801">
         <v>51.350360999999999</v>
       </c>
@@ -23661,7 +23731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A803">
         <v>51.387416999999999</v>
       </c>
@@ -23713,7 +23783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A805">
         <v>51.387613000000002</v>
       </c>
@@ -23765,7 +23835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A807">
         <v>51.548295000000003</v>
       </c>
@@ -23817,7 +23887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A809">
         <v>51.548464000000003</v>
       </c>
@@ -23869,7 +23939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A811">
         <v>51.550635999999997</v>
       </c>
@@ -23921,7 +23991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A813">
         <v>51.602736</v>
       </c>
@@ -23950,5 +24020,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>